--- a/figs/modelo-custben-faas.xlsx
+++ b/figs/modelo-custben-faas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i866050\OneDrive - Associacao Antonio Vieira\2018-12 Dissertacao\tex\figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{863F1CDB-96C3-4BE2-BFEC-59EE25AC3467}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7F84C90-C280-4E7D-A398-F8154F0A1904}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{CE72D523-E608-459D-94CB-1C14FD46EE07}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="mm:ss.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -75,7 +75,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -137,7 +137,9 @@
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -230,7 +232,9 @@
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -323,7 +327,9 @@
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -416,7 +422,9 @@
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -509,7 +517,9 @@
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -589,6 +599,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="30"/>
+        <c:overlap val="-20"/>
         <c:axId val="227671960"/>
         <c:axId val="227674584"/>
       </c:barChart>
@@ -712,7 +723,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Tempo Limite de Execução | Memória Alocada</a:t>
+                  <a:t>Tempo Limite de Execução</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -721,8 +732,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.32934443013658143"/>
-              <c:y val="0.79051731436796202"/>
+              <c:x val="0.35391529737623534"/>
+              <c:y val="0.77096697223697475"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1828,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68CA2BC-B100-476B-8AC5-6E868FAB1AA1}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
